--- a/genres/generic/severity_label/Labelled.xlsx
+++ b/genres/generic/severity_label/Labelled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rishideepc\Desktop\Python_AI_Linux\Text_Classification_DecisionTree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Python_AI\Timeline_Generator\genres\generic\severity_label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E761B-B4B3-44DF-8D3A-303BF96A374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14739B-39AF-4182-84F2-A8D6DB91B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="468">
   <si>
     <t>Label</t>
   </si>
@@ -1054,6 +1054,381 @@
   </si>
   <si>
     <t>Puerto Rico Workshop Offers Insights into Global Landslide Risk - NASA Applied Science</t>
+  </si>
+  <si>
+    <t>Jammu-Srinagar National highway reopens for two-way traffic on Thursday - Telegraph India</t>
+  </si>
+  <si>
+    <t>Fresh landslides hit Jammu-Srinagar NH - The Tribune India</t>
+  </si>
+  <si>
+    <t>Jammu-Srinagar Highway Shut For 2nd Day Due To Landslide - NDTV</t>
+  </si>
+  <si>
+    <t>NH blocked after landslides, restored - Jammu Kashmir Latest News | Tourism | Breaking News J&amp;K - Daily Excelsior</t>
+  </si>
+  <si>
+    <t>Fresh landslides hit Jammu-Srinagar highway; closed for third consecutive day - The New Indian Express</t>
+  </si>
+  <si>
+    <t>Slippery slopes: Why the Auckland storm caused so many landslides and what can be done about it - Down To Earth Magazine</t>
+  </si>
+  <si>
+    <t>Landslide In Gulmarg | गुलमर्गमध्ये हिमस्खलन, दोघांचा मृत्यू, पाहा थरारक दृश्य - Zee २४ तास</t>
+  </si>
+  <si>
+    <t>Two-way traffic resumes on landslide-hit Jammu-Srinagar National Highway - The Tribune India</t>
+  </si>
+  <si>
+    <t>Landslide blocks National Highway 44 in Jammu and Kashmir - India Today</t>
+  </si>
+  <si>
+    <t>WATCH: Major landslide occurs on NH-44 near Rampadi in J&amp;K's Banihal; traffic movement affected - Times Now</t>
+  </si>
+  <si>
+    <t>An objective absence data sampling method for landslide ... - Nature.com</t>
+  </si>
+  <si>
+    <t>Joshimath crisis is due to landslide, not subsidence: Experts - Hindustan Times</t>
+  </si>
+  <si>
+    <t>Beef up protection of environmentally sensitive areas to prevent deadly landslides - Experts - New Straits Times</t>
+  </si>
+  <si>
+    <t>Comparison of earthquake-induced shallow landslide susceptibility ... - Nature.com</t>
+  </si>
+  <si>
+    <t>Falls Creek landslide still moving as village counts cost of lost summer - The Age</t>
+  </si>
+  <si>
+    <t>'Incredible there were survivors' after bach hit by landslide, doctor says - Stuff</t>
+  </si>
+  <si>
+    <t>Joshimath declared landslide-subsidence zone - The Hindu</t>
+  </si>
+  <si>
+    <t>New Zealand roiled by flash floods, landslides for third day | Mint - Mint</t>
+  </si>
+  <si>
+    <t>Public Works Dept: Jalan Persiaran Senawang 3 in N. Sembilan unsafe, temporarily closed after landslide - Malay Mail</t>
+  </si>
+  <si>
+    <t>Joshimath landslide: Uttarakhand CM chairs high-level meeting; official says subsidence not in entire area - WION</t>
+  </si>
+  <si>
+    <t>Cracks in houses, families relocated: Severe landslides continue to cause concern in Joshimath, Uttarakhand - OpIndia</t>
+  </si>
+  <si>
+    <t>Colombia – Massive Landslide Destroys Homes, Cuts Major Road ... - FloodList</t>
+  </si>
+  <si>
+    <t>B.C. road repair costs rise to almost half a billion dollars due to landslides and washouts - Vancouver Sun</t>
+  </si>
+  <si>
+    <t>Rwf2bn earmarked to curb landslide around former Gihembe refugee camp| The New Times - New Times Publication</t>
+  </si>
+  <si>
+    <t>Landslide threat to Uttarakhand highway stretch increases: Scientists - Rediff.com</t>
+  </si>
+  <si>
+    <t>Two Orinda homes lost in landslide, government help uncertain ... - Lamorindaweekly</t>
+  </si>
+  <si>
+    <t>Rest &amp; Be Thankful diverted due to landslide risk - Argyllshire Advertiser</t>
+  </si>
+  <si>
+    <t>Thaksin Daughter Says She's Confident of Landslide Thai Election ... - Bloomberg</t>
+  </si>
+  <si>
+    <t>Tauranga authorities brace for threat of more slips amid another ... - Bay of Plenty Times</t>
+  </si>
+  <si>
+    <t>WATCH: Jammu-Srinagar highway shut due to snowfall, landslide, shooting stones - Times Now</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh: These 4 Places In Kangra To Get Early Landslide Detection And Warning System - India.com</t>
+  </si>
+  <si>
+    <t>Astoria family sues city, neighbor over 2021 landslide - Yahoo News</t>
+  </si>
+  <si>
+    <t>Whiteouts, Landslides and Floods Cut Off California Roads - The New York Times</t>
+  </si>
+  <si>
+    <t>Auckland floods: Residents evacuated after landslide in Titirangi ... - New Zealand Herald</t>
+  </si>
+  <si>
+    <t>Pro-western Petr Pavel sweeps to landslide win in race for Czech presidency - The Guardian</t>
+  </si>
+  <si>
+    <t>Generating multi-temporal landslide inventories through a general ... - Nature.com</t>
+  </si>
+  <si>
+    <t>Joshimath Landslide: Cracks in 561 houses in Uttarakhand, who is responsible for the sunken land? - Zee News</t>
+  </si>
+  <si>
+    <t>Philippines, Flooding and Landslide in Region II (6 Jan 2023 ... - ReliefWeb</t>
+  </si>
+  <si>
+    <t>'Almighty crash' before bach collapses in landslide at Auckland's ... - Stuff</t>
+  </si>
+  <si>
+    <t>Watch a landslide: Boulders tumble down on a California freeway ... - Fox Weather</t>
+  </si>
+  <si>
+    <t>What happens during a landslide: A complete visual guide - USA TODAY</t>
+  </si>
+  <si>
+    <t>Risk of major landslides in Berkeley Hills is growing - Berkeleyside</t>
+  </si>
+  <si>
+    <t>Orinda houses threatened by growing landslide as Bay Area dries out from storms - CBS San Francisco</t>
+  </si>
+  <si>
+    <t>Devastating Puerto Rico 1918 Tsunami Wasn't Caused by a Landslide - Technology Networks</t>
+  </si>
+  <si>
+    <t>Massive landslide causes Oregon highway to crumble, creating a 12-foot drop, photos show - Sacramento Bee</t>
+  </si>
+  <si>
+    <t>Melted snow likely cause of northeastern Japan landslide: expert - Kyodo News Plus</t>
+  </si>
+  <si>
+    <t>Generation Landslide / Everything you love about late '80s/early '90s ... - MetalTalk</t>
+  </si>
+  <si>
+    <t>Landslides are wreaking havoc in California. Here's why they're ... - San Francisco Chronicle</t>
+  </si>
+  <si>
+    <t>Landslides, sinkholes, floodwaters plague soggy California - The Associated Press - en Español</t>
+  </si>
+  <si>
+    <t>Suhua Highway section reopens after landslide - Focus Taiwan</t>
+  </si>
+  <si>
+    <t>Storm causes shallow landslide at La Conchita, California - VC Star</t>
+  </si>
+  <si>
+    <t>Landslide caught on camera at Point Reyes beach after California storms saturate soil - KGO-TV</t>
+  </si>
+  <si>
+    <t>Landslides: New research shows forestry management impact | News - The Chief News</t>
+  </si>
+  <si>
+    <t>Bigger landslide threat triggers evacuations in Davao de Oro - Rappler</t>
+  </si>
+  <si>
+    <t>DeSantis dismisses Trump attacks, cites historic electoral landslide - Florida’s Voice</t>
+  </si>
+  <si>
+    <t>Hero Alom confident of landslide victory in 2 Bogra constituencies - Dhaka Tribune</t>
+  </si>
+  <si>
+    <t>Landslide destroys railway line hitting services in and out of London - Metro.co.uk</t>
+  </si>
+  <si>
+    <t>A section of the A21 near Hastings was closed to traffic due to a ... - SussexWorld</t>
+  </si>
+  <si>
+    <t>Landslide in Dana Point closes Coast Highway - OCRegister</t>
+  </si>
+  <si>
+    <t>Road to Calif. state park closed after landslide, earthquakes - SFGATE</t>
+  </si>
+  <si>
+    <t>Indonesia – 5 Killed in North Sulawesi Floods and Landslides ... - FloodList</t>
+  </si>
+  <si>
+    <t>OSU researchers complete study that focuses on strength and frequency of landslides - KGW.com</t>
+  </si>
+  <si>
+    <t>Campbell River declares local emergency after landslide - Victoria ... - Times Colonist</t>
+  </si>
+  <si>
+    <t>4 Rakhine nationals died in Kachin due to landslide in jade mine area - Narinjara News</t>
+  </si>
+  <si>
+    <t>Bellevue sues school in connection with landslide that destroyed home - The Seattle Times</t>
+  </si>
+  <si>
+    <t>QuickCheck: Was there a recent Bukit Templer landslide as claimed ... - The Star Online</t>
+  </si>
+  <si>
+    <t>Councilwoman Catherine Alvarez recalled in a landslide - The Downey Patriot</t>
+  </si>
+  <si>
+    <t>Lok Sabha 2024: India TV survey predicts landslide win for Modi if LS polls are held now - India TV News</t>
+  </si>
+  <si>
+    <t>Johnny Mathis' Hollywood Hills property hit by landslide but 'no one was hurt - Daily Mail</t>
+  </si>
+  <si>
+    <t>Landslides trap residents in Studio City – Annenberg Media - uscannenbergmedia.com</t>
+  </si>
+  <si>
+    <t>Rain, landslide threat to continue this weekend in western Washington - KOMO News</t>
+  </si>
+  <si>
+    <t>Castro Valley clothing optional community isolated by massive landslide - CBS San Francisco</t>
+  </si>
+  <si>
+    <t>New landslide discovered along Highway 1 blocking road - KSBY News</t>
+  </si>
+  <si>
+    <t>Slippy slopes: Pittsburgh, built on slide-prone riverbanks, could face a deluge of impacts from climate change - PublicSource</t>
+  </si>
+  <si>
+    <t>Flooding, landslides from tropical storm Cheneso causes nearly 30 deaths, leaves 20 missing in Madagascar - Fox News</t>
+  </si>
+  <si>
+    <t>Landslide fears mount with more storms set to hit Santa Cruz County into next week - Lookout Santa Cruz</t>
+  </si>
+  <si>
+    <t>FOOTPATH CLOSED AS GIANT CRACK RAISES FEAR OF ... - Island Echo</t>
+  </si>
+  <si>
+    <t>Highway 13 in Oakland closed due to landslide - KTVU FOX 2 San Francisco</t>
+  </si>
+  <si>
+    <t>Five injured as landslide blocks A-395 to Granada’s Sierra Nevada near Guejar Sierra - Euro Weekly News</t>
+  </si>
+  <si>
+    <t>Malaysia landslide: Civil servant arrested for allegedly stealing items ... - CNA</t>
+  </si>
+  <si>
+    <t>Landslides, fallen trees bury service truck on SR-16 in Gorst - KIRO Seattle</t>
+  </si>
+  <si>
+    <t>Landslide reshapes popular climbing spire in B.C. - The Globe and Mail</t>
+  </si>
+  <si>
+    <t>Landslide Update: Highway 30 reopened to two-lane traffic - St. Helens Chronicle</t>
+  </si>
+  <si>
+    <t>Bukit Larut closed due to landslide - The Star Online</t>
+  </si>
+  <si>
+    <t>Batang Kali landslide survivors meet their rescuers | Free Malaysia ... - Free Malaysia Today</t>
+  </si>
+  <si>
+    <t>Richmond neighborhood being evacuated due to landslide threat - KRON4</t>
+  </si>
+  <si>
+    <t>Most Viewed / New Details: Highway 30 landslide site still under repair - The Chief News</t>
+  </si>
+  <si>
+    <t>Why Gov. Ugwuanyi will win Senatorial election landslide – PDP chieftain, Eya - Daily Post Nigeria</t>
+  </si>
+  <si>
+    <t>Batang Kali landslide: Survivor's wish to meet rescuers fulfilled - The Star Online</t>
+  </si>
+  <si>
+    <t>Weather: New lake caused by huge landslide to be monitored as heavy rain expected to hit Tairāwhiti - Newshub</t>
+  </si>
+  <si>
+    <t>Landslide near Combe Martin Wildlife &amp; Dinosaur Park - Devon Live</t>
+  </si>
+  <si>
+    <t>When Flood Follows Fire | The UCSB Current - The UCSB Current</t>
+  </si>
+  <si>
+    <t>BBTitans underdogs Blue Aiva and Kanaga Jnr take Head of House ... - Independent</t>
+  </si>
+  <si>
+    <t>Landslide blocks key road in HP, no loss of life - Times of India</t>
+  </si>
+  <si>
+    <t>53 stranded passengers rescued as landslide blocks Tindi-Kilad road in Himachal - India Today</t>
+  </si>
+  <si>
+    <t>Scientists Track Tropical Landslide Creeping Below an African City - NASA</t>
+  </si>
+  <si>
+    <t>Another Joshimath now in J&amp;K; 4 houses collapse after landslide in Doda district - Indiatimes.com</t>
+  </si>
+  <si>
+    <t>Cracks appear in J&amp;K's Doda district post landslides - The Tribune India</t>
+  </si>
+  <si>
+    <t>Scientists Track Tropical Landslide Creeping Below an African City - NASA Jet Propulsion Laboratory</t>
+  </si>
+  <si>
+    <t>Landslides are more common than you think - New Hampshire Public Radio</t>
+  </si>
+  <si>
+    <t>Getting a Grip on Landslides: Reducing the risk of landslides in India ... - ReliefWeb</t>
+  </si>
+  <si>
+    <t>Himachal wants landslide zone mapping expedited - Hindustan Times</t>
+  </si>
+  <si>
+    <t>Another Joshimath now in J&amp;K; 4 houses collapse after landslide in Doda district - Times of India</t>
+  </si>
+  <si>
+    <t>Road to Upper Baram cut off by landslide - The Borneo Post</t>
+  </si>
+  <si>
+    <t>Local state of emergency lifted in Campbell River weeks after ... - iHeartRadio.ca</t>
+  </si>
+  <si>
+    <t>U'khand's Landslide Alert, UP Rains, Odisha's Cold Wave: Many States Shiver as Mumbai Feels Humidity - News18</t>
+  </si>
+  <si>
+    <t>Tornadoes, landslides and floods are easier to forecast with ... - WPLN</t>
+  </si>
+  <si>
+    <t>Exposure of highway stretch in U'khand to landslides likely to surge: Study - Hindustan Times</t>
+  </si>
+  <si>
+    <t>Questions Raised Over What Led to Deadly Landslide at Malaysia ... - Voice of America - VOA News</t>
+  </si>
+  <si>
+    <t>Joshimath landslide: Sector officials deployed to complete survey work - Business Standard</t>
+  </si>
+  <si>
+    <t>24 homes evacuated after Tauranga landslide: Children pulled from ... - New Zealand Herald</t>
+  </si>
+  <si>
+    <t>Landslides in South Sulawesi Kill 2 - Tempo.co English</t>
+  </si>
+  <si>
+    <t>Landslide on J&amp;K Highway: Landslide in Panthyal, Jammu-Srinagar highway closed - Zee News</t>
+  </si>
+  <si>
+    <t>Landslide, house collapse and damaged roads - The Bay's News First - SunLive</t>
+  </si>
+  <si>
+    <t>Huge landslide under foundations of new 17-storey block of flats - msnNOW</t>
+  </si>
+  <si>
+    <t>Philippines, Flooding and Landslide in CALABARZON (5 Jan 2023 ... - ReliefWeb</t>
+  </si>
+  <si>
+    <t>Orinda home slips down hill in landslide - KTVU FOX 2 San Francisco</t>
+  </si>
+  <si>
+    <t>Pulborough landslide: renewed plea to heed road closed signs ... - West Sussex County Council</t>
+  </si>
+  <si>
+    <t>Hard work continues to find solutions following A29 Pulborough ... - West Sussex County Council</t>
+  </si>
+  <si>
+    <t>Did Climate Change Kill This Greenlander 70 Years Ago? - Hakai Magazine</t>
+  </si>
+  <si>
+    <t>Flooding and landslides in Madagascar leave 30 dead - Irish Examiner</t>
+  </si>
+  <si>
+    <t>Asari- Dokubo predicts landslide victory for Tinubu - Vanguard</t>
+  </si>
+  <si>
+    <t>Chunk of Oregon Coast's Highway 229 Taken Out by Landslide, Fix ... - Oregon Coast Beach Connection</t>
+  </si>
+  <si>
+    <t>El Caminito del Rey in Spain’s Malaga is back to its usual route today, Friday, after landslides damage has been repaired - The Olive Press</t>
+  </si>
+  <si>
+    <t>Jeff DeWit elected chair of Republican Party of Arizona in landslide - The Arizona Republic</t>
   </si>
 </sst>
 </file>
@@ -1382,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F600"/>
+  <dimension ref="A1:F819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="A703" sqref="A703"/>
+    <sheetView tabSelected="1" topLeftCell="A811" workbookViewId="0">
+      <selection activeCell="A819" sqref="A819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6170,8 +6545,1782 @@
         <v>5</v>
       </c>
     </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A598" t="s">
+        <v>343</v>
+      </c>
+      <c r="B598" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A599" t="s">
+        <v>344</v>
+      </c>
+      <c r="B599" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A600" t="s">
+        <v>345</v>
+      </c>
+      <c r="B600" t="s">
+        <v>5</v>
+      </c>
       <c r="F600" s="3"/>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A601" t="s">
+        <v>346</v>
+      </c>
+      <c r="B601" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A602" t="s">
+        <v>347</v>
+      </c>
+      <c r="B602" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A603" t="s">
+        <v>348</v>
+      </c>
+      <c r="B603" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A604" t="s">
+        <v>349</v>
+      </c>
+      <c r="B604" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A605" t="s">
+        <v>266</v>
+      </c>
+      <c r="B605" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A606" t="s">
+        <v>350</v>
+      </c>
+      <c r="B606" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A607" t="s">
+        <v>351</v>
+      </c>
+      <c r="B607" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A608" t="s">
+        <v>352</v>
+      </c>
+      <c r="B608" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A609" t="s">
+        <v>353</v>
+      </c>
+      <c r="B609" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A610" t="s">
+        <v>354</v>
+      </c>
+      <c r="B610" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A611" t="s">
+        <v>355</v>
+      </c>
+      <c r="B611" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A612" t="s">
+        <v>356</v>
+      </c>
+      <c r="B612" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A613" t="s">
+        <v>357</v>
+      </c>
+      <c r="B613" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A614" t="s">
+        <v>358</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A615" t="s">
+        <v>359</v>
+      </c>
+      <c r="B615" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A616" t="s">
+        <v>360</v>
+      </c>
+      <c r="B616" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A617" t="s">
+        <v>361</v>
+      </c>
+      <c r="B617" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A618" t="s">
+        <v>362</v>
+      </c>
+      <c r="B618" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A619" t="s">
+        <v>363</v>
+      </c>
+      <c r="B619" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A620" t="s">
+        <v>364</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A621" t="s">
+        <v>365</v>
+      </c>
+      <c r="B621" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A622" t="s">
+        <v>366</v>
+      </c>
+      <c r="B622" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A623" t="s">
+        <v>367</v>
+      </c>
+      <c r="B623" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A624" t="s">
+        <v>368</v>
+      </c>
+      <c r="B624" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A625" t="s">
+        <v>369</v>
+      </c>
+      <c r="B625" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A626" t="s">
+        <v>370</v>
+      </c>
+      <c r="B626" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A627" t="s">
+        <v>371</v>
+      </c>
+      <c r="B627" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A628" t="s">
+        <v>372</v>
+      </c>
+      <c r="B628" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A629" t="s">
+        <v>373</v>
+      </c>
+      <c r="B629" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A630" t="s">
+        <v>374</v>
+      </c>
+      <c r="B630" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A631" t="s">
+        <v>375</v>
+      </c>
+      <c r="B631" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A632" t="s">
+        <v>376</v>
+      </c>
+      <c r="B632" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A633" t="s">
+        <v>377</v>
+      </c>
+      <c r="B633" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A634" t="s">
+        <v>378</v>
+      </c>
+      <c r="B634" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A635" t="s">
+        <v>379</v>
+      </c>
+      <c r="B635" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A636" t="s">
+        <v>380</v>
+      </c>
+      <c r="B636" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
+        <v>381</v>
+      </c>
+      <c r="B637" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A638" t="s">
+        <v>382</v>
+      </c>
+      <c r="B638" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A639" t="s">
+        <v>383</v>
+      </c>
+      <c r="B639" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A640" t="s">
+        <v>384</v>
+      </c>
+      <c r="B640" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A641" t="s">
+        <v>385</v>
+      </c>
+      <c r="B641" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A642" t="s">
+        <v>386</v>
+      </c>
+      <c r="B642" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
+        <v>387</v>
+      </c>
+      <c r="B643" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A644" t="s">
+        <v>388</v>
+      </c>
+      <c r="B644" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
+        <v>389</v>
+      </c>
+      <c r="B645" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A646" t="s">
+        <v>390</v>
+      </c>
+      <c r="B646" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A647" t="s">
+        <v>391</v>
+      </c>
+      <c r="B647" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A648" t="s">
+        <v>392</v>
+      </c>
+      <c r="B648" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A649" t="s">
+        <v>393</v>
+      </c>
+      <c r="B649" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A650" t="s">
+        <v>394</v>
+      </c>
+      <c r="B650" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A651" t="s">
+        <v>395</v>
+      </c>
+      <c r="B651" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A652" t="s">
+        <v>396</v>
+      </c>
+      <c r="B652" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A653" t="s">
+        <v>397</v>
+      </c>
+      <c r="B653" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A654" t="s">
+        <v>398</v>
+      </c>
+      <c r="B654" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A655" t="s">
+        <v>399</v>
+      </c>
+      <c r="B655" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A656" t="s">
+        <v>400</v>
+      </c>
+      <c r="B656" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A657" t="s">
+        <v>401</v>
+      </c>
+      <c r="B657" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A658" t="s">
+        <v>402</v>
+      </c>
+      <c r="B658" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A659" t="s">
+        <v>403</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A660" t="s">
+        <v>404</v>
+      </c>
+      <c r="B660" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A661" t="s">
+        <v>405</v>
+      </c>
+      <c r="B661" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A662" t="s">
+        <v>406</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A663" t="s">
+        <v>407</v>
+      </c>
+      <c r="B663" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A664" t="s">
+        <v>408</v>
+      </c>
+      <c r="B664" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A665" t="s">
+        <v>409</v>
+      </c>
+      <c r="B665" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A666" t="s">
+        <v>410</v>
+      </c>
+      <c r="B666" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A667" t="s">
+        <v>411</v>
+      </c>
+      <c r="B667" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A668" t="s">
+        <v>412</v>
+      </c>
+      <c r="B668" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A669" t="s">
+        <v>413</v>
+      </c>
+      <c r="B669" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A670" t="s">
+        <v>414</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A671" t="s">
+        <v>415</v>
+      </c>
+      <c r="B671" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A672" t="s">
+        <v>416</v>
+      </c>
+      <c r="B672" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A673" t="s">
+        <v>417</v>
+      </c>
+      <c r="B673" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A674" t="s">
+        <v>418</v>
+      </c>
+      <c r="B674" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A675" t="s">
+        <v>419</v>
+      </c>
+      <c r="B675" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A676" t="s">
+        <v>420</v>
+      </c>
+      <c r="B676" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A677" t="s">
+        <v>421</v>
+      </c>
+      <c r="B677" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A678" t="s">
+        <v>422</v>
+      </c>
+      <c r="B678" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A679" t="s">
+        <v>423</v>
+      </c>
+      <c r="B679" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A680" t="s">
+        <v>424</v>
+      </c>
+      <c r="B680" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A681" t="s">
+        <v>425</v>
+      </c>
+      <c r="B681" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A682" t="s">
+        <v>426</v>
+      </c>
+      <c r="B682" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A683" t="s">
+        <v>427</v>
+      </c>
+      <c r="B683" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A684" t="s">
+        <v>428</v>
+      </c>
+      <c r="B684" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A685" t="s">
+        <v>429</v>
+      </c>
+      <c r="B685" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A686" t="s">
+        <v>430</v>
+      </c>
+      <c r="B686" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A687" t="s">
+        <v>431</v>
+      </c>
+      <c r="B687" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A688" t="s">
+        <v>432</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A689" t="s">
+        <v>433</v>
+      </c>
+      <c r="B689" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A690" t="s">
+        <v>434</v>
+      </c>
+      <c r="B690" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A691" t="s">
+        <v>435</v>
+      </c>
+      <c r="B691" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692" t="s">
+        <v>436</v>
+      </c>
+      <c r="B692" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693" t="s">
+        <v>437</v>
+      </c>
+      <c r="B693" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694" t="s">
+        <v>438</v>
+      </c>
+      <c r="B694" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695" t="s">
+        <v>439</v>
+      </c>
+      <c r="B695" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696" t="s">
+        <v>440</v>
+      </c>
+      <c r="B696" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697" t="s">
+        <v>266</v>
+      </c>
+      <c r="B697" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698" t="s">
+        <v>441</v>
+      </c>
+      <c r="B698" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699" t="s">
+        <v>442</v>
+      </c>
+      <c r="B699" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700" t="s">
+        <v>353</v>
+      </c>
+      <c r="B700" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701" t="s">
+        <v>443</v>
+      </c>
+      <c r="B701" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702" t="s">
+        <v>351</v>
+      </c>
+      <c r="B702" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" t="s">
+        <v>444</v>
+      </c>
+      <c r="B703" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" t="s">
+        <v>445</v>
+      </c>
+      <c r="B704" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705" t="s">
+        <v>446</v>
+      </c>
+      <c r="B705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706" t="s">
+        <v>359</v>
+      </c>
+      <c r="B706" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707" t="s">
+        <v>447</v>
+      </c>
+      <c r="B707" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708" t="s">
+        <v>448</v>
+      </c>
+      <c r="B708" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709" t="s">
+        <v>449</v>
+      </c>
+      <c r="B709" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710" t="s">
+        <v>450</v>
+      </c>
+      <c r="B710" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711" t="s">
+        <v>451</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712" t="s">
+        <v>357</v>
+      </c>
+      <c r="B712" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713" t="s">
+        <v>452</v>
+      </c>
+      <c r="B713" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714" t="s">
+        <v>360</v>
+      </c>
+      <c r="B714" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715" t="s">
+        <v>364</v>
+      </c>
+      <c r="B715" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A716" t="s">
+        <v>453</v>
+      </c>
+      <c r="B716" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A717" t="s">
+        <v>356</v>
+      </c>
+      <c r="B717" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A718" t="s">
+        <v>355</v>
+      </c>
+      <c r="B718" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>373</v>
+      </c>
+      <c r="B719" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>372</v>
+      </c>
+      <c r="B720" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>454</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>375</v>
+      </c>
+      <c r="B722" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>370</v>
+      </c>
+      <c r="B723" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>455</v>
+      </c>
+      <c r="B724" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>456</v>
+      </c>
+      <c r="B725" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>380</v>
+      </c>
+      <c r="B726" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A727" t="s">
+        <v>366</v>
+      </c>
+      <c r="B727" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A728" t="s">
+        <v>457</v>
+      </c>
+      <c r="B728" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A729" t="s">
+        <v>379</v>
+      </c>
+      <c r="B729" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A730" t="s">
+        <v>365</v>
+      </c>
+      <c r="B730" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A731" t="s">
+        <v>377</v>
+      </c>
+      <c r="B731" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A732" t="s">
+        <v>376</v>
+      </c>
+      <c r="B732" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A733" t="s">
+        <v>382</v>
+      </c>
+      <c r="B733" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A734" t="s">
+        <v>383</v>
+      </c>
+      <c r="B734" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A735" t="s">
+        <v>387</v>
+      </c>
+      <c r="B735" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A736" t="s">
+        <v>458</v>
+      </c>
+      <c r="B736" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>369</v>
+      </c>
+      <c r="B737" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>393</v>
+      </c>
+      <c r="B738" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>392</v>
+      </c>
+      <c r="B739" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>391</v>
+      </c>
+      <c r="B740" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>390</v>
+      </c>
+      <c r="B741" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>459</v>
+      </c>
+      <c r="B742" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>396</v>
+      </c>
+      <c r="B743" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>394</v>
+      </c>
+      <c r="B744" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>402</v>
+      </c>
+      <c r="B745" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>397</v>
+      </c>
+      <c r="B746" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>399</v>
+      </c>
+      <c r="B747" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>407</v>
+      </c>
+      <c r="B748" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>405</v>
+      </c>
+      <c r="B749" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>460</v>
+      </c>
+      <c r="B750" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>404</v>
+      </c>
+      <c r="B751" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>421</v>
+      </c>
+      <c r="B752" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>413</v>
+      </c>
+      <c r="B753" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>411</v>
+      </c>
+      <c r="B754" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>381</v>
+      </c>
+      <c r="B755" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>461</v>
+      </c>
+      <c r="B756" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>410</v>
+      </c>
+      <c r="B757" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>420</v>
+      </c>
+      <c r="B758" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>422</v>
+      </c>
+      <c r="B759" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>424</v>
+      </c>
+      <c r="B760" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>423</v>
+      </c>
+      <c r="B761" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>426</v>
+      </c>
+      <c r="B762" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>427</v>
+      </c>
+      <c r="B763" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>398</v>
+      </c>
+      <c r="B764" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>429</v>
+      </c>
+      <c r="B765" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>462</v>
+      </c>
+      <c r="B766" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>431</v>
+      </c>
+      <c r="B767" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>463</v>
+      </c>
+      <c r="B768" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>409</v>
+      </c>
+      <c r="B769" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>415</v>
+      </c>
+      <c r="B770" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>432</v>
+      </c>
+      <c r="B771" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>433</v>
+      </c>
+      <c r="B772" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>419</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>434</v>
+      </c>
+      <c r="B774" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>464</v>
+      </c>
+      <c r="B775" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>430</v>
+      </c>
+      <c r="B776" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>465</v>
+      </c>
+      <c r="B777" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>435</v>
+      </c>
+      <c r="B778" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>466</v>
+      </c>
+      <c r="B779" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>467</v>
+      </c>
+      <c r="B780" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>87</v>
+      </c>
+      <c r="B781" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>81</v>
+      </c>
+      <c r="B782" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>95</v>
+      </c>
+      <c r="B783" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>436</v>
+      </c>
+      <c r="B784" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>437</v>
+      </c>
+      <c r="B785" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>438</v>
+      </c>
+      <c r="B786" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>439</v>
+      </c>
+      <c r="B787" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>440</v>
+      </c>
+      <c r="B788" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>266</v>
+      </c>
+      <c r="B789" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>441</v>
+      </c>
+      <c r="B790" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>442</v>
+      </c>
+      <c r="B791" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>353</v>
+      </c>
+      <c r="B792" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>443</v>
+      </c>
+      <c r="B793" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>351</v>
+      </c>
+      <c r="B794" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>444</v>
+      </c>
+      <c r="B795" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>445</v>
+      </c>
+      <c r="B796" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>446</v>
+      </c>
+      <c r="B797" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>359</v>
+      </c>
+      <c r="B798" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>447</v>
+      </c>
+      <c r="B799" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>448</v>
+      </c>
+      <c r="B800" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>449</v>
+      </c>
+      <c r="B801" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>450</v>
+      </c>
+      <c r="B802" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>451</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>357</v>
+      </c>
+      <c r="B804" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>452</v>
+      </c>
+      <c r="B805" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>360</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>364</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>453</v>
+      </c>
+      <c r="B808" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>356</v>
+      </c>
+      <c r="B809" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>355</v>
+      </c>
+      <c r="B810" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A811" t="s">
+        <v>373</v>
+      </c>
+      <c r="B811" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A812" t="s">
+        <v>372</v>
+      </c>
+      <c r="B812" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A813" t="s">
+        <v>454</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A814" t="s">
+        <v>375</v>
+      </c>
+      <c r="B814" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A815" t="s">
+        <v>370</v>
+      </c>
+      <c r="B815" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A816" t="s">
+        <v>455</v>
+      </c>
+      <c r="B816" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A817" t="s">
+        <v>456</v>
+      </c>
+      <c r="B817" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A818" t="s">
+        <v>380</v>
+      </c>
+      <c r="B818" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A819" t="s">
+        <v>366</v>
+      </c>
+      <c r="B819" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
